--- a/final/Foundation Plan.xlsx
+++ b/final/Foundation Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balázs\Documents\CSE210\cse210-activity\cse210-activity\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EFEBE-4559-495C-81A7-7ED6DD0C06D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DE2924-9ACD-4A88-92C8-997D120A2787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16215" yWindow="195" windowWidth="11610" windowHeight="14070" firstSheet="1" activeTab="2" xr2:uid="{4577458D-3711-4973-A935-EF3D4D6955F3}"/>
+    <workbookView xWindow="16215" yWindow="195" windowWidth="11610" windowHeight="14070" firstSheet="2" activeTab="3" xr2:uid="{4577458D-3711-4973-A935-EF3D4D6955F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundation 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="84">
   <si>
     <t>Video</t>
   </si>
@@ -264,6 +264,42 @@
   </si>
   <si>
     <t>GenerateWeatherStatement()</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>CalculateDistance()</t>
+  </si>
+  <si>
+    <t>CalculateSpeed()</t>
+  </si>
+  <si>
+    <t>virtual double</t>
+  </si>
+  <si>
+    <t>CalculatePace()</t>
+  </si>
+  <si>
+    <t>GetSummary()</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>override double</t>
+  </si>
+  <si>
+    <t>laps</t>
   </si>
 </sst>
 </file>
@@ -301,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -485,11 +521,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,6 +593,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1245,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4F84A4-F39E-4946-8B1E-03BA1141ABAB}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,12 +1589,280 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86034F9-4A33-488A-BDC4-3862E837768F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="D9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="D10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="G10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="11"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>